--- a/design/architecture.xlsx
+++ b/design/architecture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\project-athena\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A69F53-2ABB-48DF-BCE0-0BC3FCAA75BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A40351-EE22-45B9-A435-322784E2603E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
   <si>
     <t>Компоненты:</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>Защита эндпоинтов с помощью middleware для проверки JWT</t>
+  </si>
+  <si>
+    <t>массив транзакций</t>
   </si>
 </sst>
 </file>
@@ -536,7 +539,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,7 +663,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,6 +771,9 @@
       <c r="H4" t="s">
         <v>49</v>
       </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
